--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H2">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I2">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J2">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.51598433333333</v>
+        <v>1.181969666666667</v>
       </c>
       <c r="N2">
-        <v>34.547953</v>
+        <v>3.545909</v>
       </c>
       <c r="O2">
-        <v>0.9063460549271956</v>
+        <v>0.9932835390261762</v>
       </c>
       <c r="P2">
-        <v>0.9063460549271956</v>
+        <v>0.9932835390261762</v>
       </c>
       <c r="Q2">
-        <v>179.6099171923198</v>
+        <v>9.907897371893</v>
       </c>
       <c r="R2">
-        <v>1616.489254730878</v>
+        <v>89.171076347037</v>
       </c>
       <c r="S2">
-        <v>0.4312163204680317</v>
+        <v>0.3256580455937335</v>
       </c>
       <c r="T2">
-        <v>0.4312163204680318</v>
+        <v>0.3256580455937336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H3">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I3">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J3">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.181969666666667</v>
+        <v>0.007992333333333334</v>
       </c>
       <c r="N3">
-        <v>3.545909</v>
+        <v>0.023977</v>
       </c>
       <c r="O3">
-        <v>0.09302492200567822</v>
+        <v>0.006716460973823815</v>
       </c>
       <c r="P3">
-        <v>0.09302492200567822</v>
+        <v>0.006716460973823815</v>
       </c>
       <c r="Q3">
-        <v>18.43467894788155</v>
+        <v>0.06699598192900001</v>
       </c>
       <c r="R3">
-        <v>165.912110530934</v>
+        <v>0.602963837361</v>
       </c>
       <c r="S3">
-        <v>0.04425888363615864</v>
+        <v>0.002202059601416999</v>
       </c>
       <c r="T3">
-        <v>0.04425888363615865</v>
+        <v>0.002202059601416999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.59657533333333</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H4">
-        <v>46.789726</v>
+        <v>19.198594</v>
       </c>
       <c r="I4">
-        <v>0.4757744772251148</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J4">
-        <v>0.475774477225115</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.007992333333333334</v>
+        <v>1.181969666666667</v>
       </c>
       <c r="N4">
-        <v>0.023977</v>
+        <v>3.545909</v>
       </c>
       <c r="O4">
-        <v>0.0006290230671261296</v>
+        <v>0.9932835390261762</v>
       </c>
       <c r="P4">
-        <v>0.0006290230671261296</v>
+        <v>0.9932835390261762</v>
       </c>
       <c r="Q4">
-        <v>0.1246530289224445</v>
+        <v>7.564051916882888</v>
       </c>
       <c r="R4">
-        <v>1.121877260302</v>
+        <v>68.076467251946</v>
       </c>
       <c r="S4">
-        <v>0.0002992731209244726</v>
+        <v>0.2486192853601368</v>
       </c>
       <c r="T4">
-        <v>0.0002992731209244727</v>
+        <v>0.2486192853601368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>19.198594</v>
       </c>
       <c r="I5">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J5">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>11.51598433333333</v>
+        <v>0.007992333333333334</v>
       </c>
       <c r="N5">
-        <v>34.547953</v>
+        <v>0.023977</v>
       </c>
       <c r="O5">
-        <v>0.9063460549271956</v>
+        <v>0.006716460973823815</v>
       </c>
       <c r="P5">
-        <v>0.9063460549271956</v>
+        <v>0.006716460973823815</v>
       </c>
       <c r="Q5">
-        <v>73.69690257534245</v>
+        <v>0.05114718759311111</v>
       </c>
       <c r="R5">
-        <v>663.272123178082</v>
+        <v>0.4603246883380001</v>
       </c>
       <c r="S5">
-        <v>0.1769351473192989</v>
+        <v>0.001681132991591155</v>
       </c>
       <c r="T5">
-        <v>0.1769351473192989</v>
+        <v>0.001681132991591155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.399531333333333</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H6">
-        <v>19.198594</v>
+        <v>32.356018</v>
       </c>
       <c r="I6">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J6">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>3.545909</v>
       </c>
       <c r="O6">
-        <v>0.09302492200567822</v>
+        <v>0.9932835390261762</v>
       </c>
       <c r="P6">
-        <v>0.09302492200567822</v>
+        <v>0.9932835390261762</v>
       </c>
       <c r="Q6">
-        <v>7.564051916882888</v>
+        <v>12.74794393670689</v>
       </c>
       <c r="R6">
-        <v>68.076467251946</v>
+        <v>114.731495430362</v>
       </c>
       <c r="S6">
-        <v>0.01816014776029792</v>
+        <v>0.4190062080723059</v>
       </c>
       <c r="T6">
-        <v>0.01816014776029792</v>
+        <v>0.4190062080723059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.399531333333333</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H7">
-        <v>19.198594</v>
+        <v>32.356018</v>
       </c>
       <c r="I7">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J7">
-        <v>0.1952180917624358</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,208 +868,22 @@
         <v>0.023977</v>
       </c>
       <c r="O7">
-        <v>0.0006290230671261296</v>
+        <v>0.006716460973823815</v>
       </c>
       <c r="P7">
-        <v>0.0006290230671261296</v>
+        <v>0.006716460973823815</v>
       </c>
       <c r="Q7">
-        <v>0.05114718759311111</v>
+        <v>0.08620002706511111</v>
       </c>
       <c r="R7">
-        <v>0.4603246883380001</v>
+        <v>0.7758002435860001</v>
       </c>
       <c r="S7">
-        <v>0.0001227966828389176</v>
+        <v>0.002833268380815661</v>
       </c>
       <c r="T7">
-        <v>0.0001227966828389176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>10.78533933333333</v>
-      </c>
-      <c r="H8">
-        <v>32.356018</v>
-      </c>
-      <c r="I8">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="J8">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>11.51598433333333</v>
-      </c>
-      <c r="N8">
-        <v>34.547953</v>
-      </c>
-      <c r="O8">
-        <v>0.9063460549271956</v>
-      </c>
-      <c r="P8">
-        <v>0.9063460549271956</v>
-      </c>
-      <c r="Q8">
-        <v>124.2037987923504</v>
-      </c>
-      <c r="R8">
-        <v>1117.834189131154</v>
-      </c>
-      <c r="S8">
-        <v>0.2981945871398649</v>
-      </c>
-      <c r="T8">
-        <v>0.2981945871398649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.78533933333333</v>
-      </c>
-      <c r="H9">
-        <v>32.356018</v>
-      </c>
-      <c r="I9">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="J9">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.181969666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.545909</v>
-      </c>
-      <c r="O9">
-        <v>0.09302492200567822</v>
-      </c>
-      <c r="P9">
-        <v>0.09302492200567822</v>
-      </c>
-      <c r="Q9">
-        <v>12.74794393670689</v>
-      </c>
-      <c r="R9">
-        <v>114.731495430362</v>
-      </c>
-      <c r="S9">
-        <v>0.03060589060922165</v>
-      </c>
-      <c r="T9">
-        <v>0.03060589060922166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10.78533933333333</v>
-      </c>
-      <c r="H10">
-        <v>32.356018</v>
-      </c>
-      <c r="I10">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="J10">
-        <v>0.3290074310124493</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.007992333333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.023977</v>
-      </c>
-      <c r="O10">
-        <v>0.0006290230671261296</v>
-      </c>
-      <c r="P10">
-        <v>0.0006290230671261296</v>
-      </c>
-      <c r="Q10">
-        <v>0.08620002706511111</v>
-      </c>
-      <c r="R10">
-        <v>0.7758002435860001</v>
-      </c>
-      <c r="S10">
-        <v>0.0002069532633627393</v>
-      </c>
-      <c r="T10">
-        <v>0.0002069532633627394</v>
+        <v>0.002833268380815661</v>
       </c>
     </row>
   </sheetData>
